--- a/data/trans_orig/Q04B-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q04B-Clase-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>3.117109208074738</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>3.199795608185825</v>
+        <v>3.199795608185826</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>3.170396057426971</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.12030188786246</v>
+        <v>3.120232190439492</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.114133577085843</v>
+        <v>3.119375141075666</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.06133620821787</v>
+        <v>3.063058370317402</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.267233803317462</v>
+        <v>3.265193537877568</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.047244828532236</v>
+        <v>3.042342815102256</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.041812908475069</v>
+        <v>3.049748981740831</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.032940347968996</v>
+        <v>3.036287814294177</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.137194805181087</v>
+        <v>3.141499400592952</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.112655263532874</v>
+        <v>3.108899638110788</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.109573817017106</v>
+        <v>3.11595054888497</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3.073896180020181</v>
+        <v>3.080895371358401</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>3.22549253312687</v>
+        <v>3.224016133093862</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.268396589785927</v>
+        <v>3.266977690991888</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.271876910533291</v>
+        <v>3.276314585734505</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.233650312549972</v>
+        <v>3.242175455191156</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.427680498471027</v>
+        <v>3.426191723757973</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.226496632557336</v>
+        <v>3.231393546039516</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.24307869958366</v>
+        <v>3.244959786507288</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.202404574942711</v>
+        <v>3.202107801341893</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.261443064381995</v>
+        <v>3.26072842548528</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.227367875264474</v>
+        <v>3.223994594111085</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3.229475170350359</v>
+        <v>3.234387466227536</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>3.196021400732053</v>
+        <v>3.201956795435971</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>3.321284548822347</v>
+        <v>3.324568775316134</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.02407490060656</v>
+        <v>3.014234487226994</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.038695956140259</v>
+        <v>3.040766504819352</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.071811499325887</v>
+        <v>3.076121393156075</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.099748454855419</v>
+        <v>3.109153456074087</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.01578265825193</v>
+        <v>3.008905035275713</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>2.972402364850447</v>
+        <v>2.982389251881745</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.909762565823242</v>
+        <v>2.93032436589185</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>3.13732265876846</v>
+        <v>3.13150150731298</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>3.038627630750824</v>
+        <v>3.035295920850085</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3.030999048035224</v>
+        <v>3.037104061727725</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3.015703653262772</v>
+        <v>3.018296392947399</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>3.137934582908028</v>
+        <v>3.138185403508837</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.178800189533159</v>
+        <v>3.176883155186391</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.230728511279633</v>
+        <v>3.205157737208314</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.264876728301666</v>
+        <v>3.264839610869289</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.248566184061519</v>
+        <v>3.254910047551062</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.175101951072559</v>
+        <v>3.169368812606561</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.135279904068084</v>
+        <v>3.137426172430406</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>3.087766233305151</v>
+        <v>3.096393794983816</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>3.261701011798337</v>
+        <v>3.268480700320634</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>3.158089571035829</v>
+        <v>3.148935023140224</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3.154980767534997</v>
+        <v>3.156055699823793</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>3.149076109277802</v>
+        <v>3.150407489214742</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>3.231379665362796</v>
+        <v>3.237026124133772</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.011200117738564</v>
+        <v>3.013578632568156</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.954516866024597</v>
+        <v>2.947482399243744</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.031789863337493</v>
+        <v>3.029708324457536</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.203492645222002</v>
+        <v>3.197229290828462</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.08130774070841</v>
+        <v>3.076540618591423</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.920491082361968</v>
+        <v>2.914760367687633</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>3.133668297290454</v>
+        <v>3.126295786289636</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>3.179173500466596</v>
+        <v>3.183024419051657</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.045821680211785</v>
+        <v>3.046088233133999</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2.96033044478308</v>
+        <v>2.958360885459137</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>3.08377074119417</v>
+        <v>3.077541213759909</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>3.205875327483128</v>
+        <v>3.203788586885111</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.122326384469904</v>
+        <v>3.124450148216312</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.073628391498801</v>
+        <v>3.070158469694207</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.194794939813986</v>
+        <v>3.194354429383253</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.343108317020176</v>
+        <v>3.336321972021904</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.311236035013652</v>
+        <v>3.305844342151346</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.130674767798892</v>
+        <v>3.129963145582416</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.390343915099775</v>
+        <v>3.407186910375739</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.356339690060037</v>
+        <v>3.362520111084611</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.150496030419145</v>
+        <v>3.150691346652289</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3.063341627697356</v>
+        <v>3.06905411824953</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>3.219567435297136</v>
+        <v>3.21223491169575</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>3.320666144195946</v>
+        <v>3.322232565926349</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>3.172409769159469</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>3.12772258773918</v>
+        <v>3.127722587739181</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>3.087849590163207</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.037938300807307</v>
+        <v>3.036316832215229</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.932347282905192</v>
+        <v>2.93424896378888</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.044892340148465</v>
+        <v>3.044696248893192</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.093917181083619</v>
+        <v>3.094102005852459</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.056371641535786</v>
+        <v>3.056220024861153</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>2.965104691793956</v>
+        <v>2.960674789062727</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>3.109864676974236</v>
+        <v>3.105753331831799</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>3.091748202555278</v>
+        <v>3.089221101427341</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>3.052624309856474</v>
+        <v>3.056279952328655</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2.959246744867539</v>
+        <v>2.959710068840449</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3.088794525877916</v>
+        <v>3.087022294952319</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>3.10069351922696</v>
+        <v>3.102961195550717</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.118683031813591</v>
+        <v>3.116624967263546</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.023123397635605</v>
+        <v>3.022193284614492</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.143737628853642</v>
+        <v>3.139887796346161</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.190715719132806</v>
+        <v>3.190059400347085</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>3.158334781608943</v>
+        <v>3.156172875185412</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.071011146420406</v>
+        <v>3.066009088674359</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>3.245963144507443</v>
+        <v>3.245630508888573</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>3.171691435447127</v>
+        <v>3.167159358314211</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>3.120362871868027</v>
+        <v>3.119876531327284</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3.024476748704968</v>
+        <v>3.031395788215375</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>3.166686456818857</v>
+        <v>3.16471486457113</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>3.166968291067616</v>
+        <v>3.168558927241984</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.790338300643901</v>
+        <v>2.793237963898482</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.945090338283253</v>
+        <v>2.939479486892204</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.137708451572866</v>
+        <v>3.143155694868404</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.029450622377884</v>
+        <v>3.033717483445593</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>2.946665631901156</v>
+        <v>2.948760244690605</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.95555873707943</v>
+        <v>2.956125726824517</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.022506513732734</v>
+        <v>3.02109386524931</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.075199183519951</v>
+        <v>3.071538100342202</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.911737535884378</v>
+        <v>2.907606812253023</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2.972403127958438</v>
+        <v>2.967403168915227</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3.093434643979537</v>
+        <v>3.091602915803124</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>3.071274755260362</v>
+        <v>3.071235645267396</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.964611153181854</v>
+        <v>2.96873524306766</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.087379863149088</v>
+        <v>3.07370645358773</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.305621047114534</v>
+        <v>3.30499722970744</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.158745162568661</v>
+        <v>3.169348199738204</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.078256926232726</v>
+        <v>3.075616101960884</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.070321937327253</v>
+        <v>3.070127529837126</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.14430308309499</v>
+        <v>3.135203388612289</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.161549063897183</v>
+        <v>3.154779287549595</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.020190562538219</v>
+        <v>3.010153339720179</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3.058707434775483</v>
+        <v>3.056687781359627</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>3.19615742089402</v>
+        <v>3.192972190662893</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>3.141640761552702</v>
+        <v>3.144408069668542</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>3.380174886522064</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3.278511823373818</v>
+        <v>3.278511823373817</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>3.079270552231808</v>
@@ -1361,7 +1361,7 @@
         <v>3.312901635556929</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>3.288570928525258</v>
+        <v>3.288570928525257</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>3.112053695610404</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>3.171072637592029</v>
+        <v>3.164457885377064</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>3.087993942584619</v>
+        <v>3.093742960987284</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3.279823729087779</v>
+        <v>3.269114106811989</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3.113852770877893</v>
+        <v>3.123835839676229</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>3.043009197382268</v>
+        <v>3.040496943548639</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>3.042217801490712</v>
+        <v>3.045451611317459</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>3.252314693955368</v>
+        <v>3.255548509507454</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>3.242082100596861</v>
+        <v>3.243098897374131</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>3.078006460262074</v>
+        <v>3.073428312826168</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3.066657167828359</v>
+        <v>3.068348874432691</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3.271820560698933</v>
+        <v>3.273495754450778</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>3.232919934617716</v>
+        <v>3.240785272174611</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.354407559283617</v>
+        <v>3.343621133982984</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.248461148076573</v>
+        <v>3.245355562099768</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.51338385161841</v>
+        <v>3.517832548180098</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3.436330117993212</v>
+        <v>3.426657088909566</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>3.121115630347059</v>
+        <v>3.119986241998519</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>3.132297458384683</v>
+        <v>3.128849251607603</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>3.37558361674726</v>
+        <v>3.374426627999972</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>3.332723977162443</v>
+        <v>3.334863808972415</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>3.154255553136676</v>
+        <v>3.147452087667116</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3.143160952643146</v>
+        <v>3.140552889098859</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>3.381280121643087</v>
+        <v>3.381608522027287</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>3.331759325777766</v>
+        <v>3.339082419532717</v>
       </c>
     </row>
     <row r="22">
@@ -1497,7 +1497,7 @@
         <v>3.177153301511514</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>3.187906181684815</v>
+        <v>3.187906181684814</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>3.087465806158435</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.06232562893209</v>
+        <v>3.061103494148806</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.023419698523561</v>
+        <v>3.024275585008652</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.126872569663079</v>
+        <v>3.12782488216935</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.167487225508719</v>
+        <v>3.165603697376977</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.062707025260305</v>
+        <v>3.063210379490788</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.028690047037283</v>
+        <v>3.027621495056968</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>3.149018886477847</v>
+        <v>3.148232126220381</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>3.168334577783309</v>
+        <v>3.167359165870891</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.067622006075997</v>
+        <v>3.070463507548033</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3.033666588117115</v>
+        <v>3.034081399436624</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3.144889278642066</v>
+        <v>3.145417804995485</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>3.174524005277154</v>
+        <v>3.174237233167474</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.114906632754565</v>
+        <v>3.113315647274841</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.07361327704263</v>
+        <v>3.075652411120043</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.190705781395396</v>
+        <v>3.188112269134461</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.225254032971323</v>
+        <v>3.223766512815905</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.112984282498652</v>
+        <v>3.113094819648432</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.079660139204412</v>
+        <v>3.080321925776424</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.209110121715706</v>
+        <v>3.208233081982327</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.208642104057613</v>
+        <v>3.210333671432403</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.105492536947564</v>
+        <v>3.107081579613615</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3.070578374713933</v>
+        <v>3.070017753941166</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>3.188680533445822</v>
+        <v>3.187402544860764</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>3.210230038561739</v>
+        <v>3.207794929861469</v>
       </c>
     </row>
     <row r="25">
